--- a/data/import/technical_orders.xlsx
+++ b/data/import/technical_orders.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\DataManagement\data\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\ExcelManagement\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A131E-C807-48E3-B8FE-D39B02B32477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="15" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="15" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="TechnicalOrders" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>IDENTIFIER</t>
   </si>
@@ -92,12 +91,15 @@
   </si>
   <si>
     <t>part 2</t>
+  </si>
+  <si>
+    <t>Third revision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430CC48D-B337-452A-82B8-163070EF89ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,9 +476,6 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3">
         <v>100</v>
       </c>
@@ -487,7 +486,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>101</v>
@@ -500,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
